--- a/experiments/dbscan-ajk/instructor-xl/0.09/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-xl/0.09/prediction.xlsx
@@ -468,147 +468,147 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,97 +618,97 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,57 +718,57 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,247 +778,247 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,487 +1028,487 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,4621 +1538,4621 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>131</v>
+        <v>84</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>137</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>142</v>
+        <v>65</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>154</v>
+        <v>59</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>155</v>
+        <v>59</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>156</v>
+        <v>59</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>157</v>
+        <v>69</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>161</v>
+        <v>185</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>163</v>
+        <v>111</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>164</v>
+        <v>190</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>164</v>
+        <v>193</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>165</v>
+        <v>59</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>169</v>
+        <v>207</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>169</v>
+        <v>206</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>169</v>
+        <v>208</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>170</v>
+        <v>209</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>171</v>
+        <v>210</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>172</v>
+        <v>210</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>174</v>
+        <v>201</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>177</v>
+        <v>205</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>184</v>
+        <v>212</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>195</v>
+        <v>223</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>196</v>
+        <v>223</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>198</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>203</v>
+        <v>110</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>213</v>
+        <v>59</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>214</v>
+        <v>59</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>214</v>
+        <v>152</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>214</v>
+        <v>84</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>214</v>
+        <v>84</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>214</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>214</v>
+        <v>84</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>214</v>
+        <v>144</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>215</v>
+        <v>144</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>216</v>
+        <v>245</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>218</v>
+        <v>246</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>221</v>
+        <v>250</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>227</v>
+        <v>258</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>231</v>
+        <v>262</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>231</v>
+        <v>262</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>231</v>
+        <v>265</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>232</v>
+        <v>266</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>234</v>
+        <v>268</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>235</v>
+        <v>268</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>236</v>
+        <v>269</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>245</v>
+        <v>185</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>245</v>
+        <v>152</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>246</v>
+        <v>152</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>246</v>
+        <v>152</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>246</v>
+        <v>152</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>250</v>
+        <v>183</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>253</v>
+        <v>296</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>254</v>
+        <v>297</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>255</v>
+        <v>298</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>256</v>
+        <v>296</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>257</v>
+        <v>299</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>260</v>
+        <v>219</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>261</v>
+        <v>301</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>262</v>
+        <v>301</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>269</v>
+        <v>84</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>270</v>
+        <v>27</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>274</v>
+        <v>294</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>275</v>
+        <v>215</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>277</v>
+        <v>215</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>280</v>
+        <v>303</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>281</v>
+        <v>227</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>282</v>
+        <v>188</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>284</v>
+        <v>306</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>285</v>
+        <v>304</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>286</v>
+        <v>307</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>287</v>
+        <v>308</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>288</v>
+        <v>245</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>288</v>
+        <v>215</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>293</v>
+        <v>26</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>294</v>
+        <v>26</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>295</v>
+        <v>26</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>296</v>
+        <v>26</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>296</v>
+        <v>26</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>297</v>
+        <v>26</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>298</v>
+        <v>26</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>299</v>
+        <v>26</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>299</v>
+        <v>214</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>300</v>
+        <v>214</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>301</v>
+        <v>214</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>305</v>
+        <v>129</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>306</v>
+        <v>130</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>318</v>
+        <v>29</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>328</v>
+        <v>169</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>335</v>
+        <v>90</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>336</v>
+        <v>141</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>337</v>
+        <v>142</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>338</v>
+        <v>84</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>339</v>
+        <v>245</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>344</v>
+        <v>69</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>345</v>
+        <v>210</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>345</v>
+        <v>210</v>
       </c>
     </row>
     <row r="573">
